--- a/docs/设计文档/数据结构.xlsx
+++ b/docs/设计文档/数据结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14920" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14920" tabRatio="690"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,13 @@
     <sheet name="Car_Model_Lv1" sheetId="4" r:id="rId3"/>
     <sheet name="Car_Model_Lv2" sheetId="5" r:id="rId4"/>
     <sheet name="Car_Model_Lv3" sheetId="6" r:id="rId5"/>
+    <sheet name="Shop" sheetId="8" r:id="rId6"/>
+    <sheet name="Shop_Stock" sheetId="10" r:id="rId7"/>
+    <sheet name="User" sheetId="11" r:id="rId8"/>
+    <sheet name="User_Order" sheetId="13" r:id="rId9"/>
+    <sheet name="Dic_City" sheetId="16" r:id="rId10"/>
+    <sheet name="Dic_Color" sheetId="14" r:id="rId11"/>
+    <sheet name="工作表2" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="218">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -33,10 +40,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>表名：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>字段名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -137,47 +140,536 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>User_Orders</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Off_Ticket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Submit_Price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户提交价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户打折券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我提交的价格是不是不应该在4s店的汽车区域，因为提交的价格是需要给每一个4s店的，不是给某个4s店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取优惠券，优惠券如何发放？是全部都可以领，还是让4s店在做库存的时候选择，还是网站来控制，如何控制？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车详情页面的颜色和发动机排量是否有必要显示，如果显示，显示的是有库存的才显示，还是所有可能的都显示。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有一个4s有库存，特别是刚建设好时数据量不多，网站知道价显示为0是否ok？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市字典</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>System_Refresh_Chain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Car_Brand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo文件名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序值（顺序）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增长键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车一级型号(如一汽大众的速腾、捷达级别)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车二级型号（如1.6L、1.4T等级别）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车三级型号（最末型号,如手动时尚型、自动豪华型等）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车附加品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ename</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order_Index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键Car_Brand.Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Car_Img_Path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车图片地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键Car_Model_Lv1.Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Short_Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full_Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全写名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简写名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>can be null?</t>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>can be null?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>default?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键Car_Model_Lv2.Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内饰颜色集合，关联dic_color.id,逗号分割数组形式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop_Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4s店名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop_Address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop_Tel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop_Email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_Name</t>
+  </si>
+  <si>
+    <t>Login_Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_Password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag_Useable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标志位：是否启用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop_Location_Longtude</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop_Location_Dimensiong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店地址维度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Shop_Stock</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>User_Orders</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>User_Off_Ticket</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>User_Submit_Price</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户订单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户提交价格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户打折券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题记录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我提交的价格是不是不应该在4s店的汽车区域，因为提交的价格是需要给每一个4s店的，不是给某个4s店</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取优惠券，优惠券如何发放？是全部都可以领，还是让4s店在做库存的时候选择，还是网站来控制，如何控制？</t>
+    <t>系统缓存刷新链表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆名</t>
+  </si>
+  <si>
+    <t>登陆名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆密码</t>
+  </si>
+  <si>
+    <t>登陆密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4s店Id,Shop.Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车型Id, Car_Model_lv3.Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在途和现货在流程上有和体现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Car_Price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Car_On_Order_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Car_On_Hand_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车在途库存数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加值（Car_Addition.Id以逗号隔开列表）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_tel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户邮箱地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_Password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_Name + Login_Name</t>
+  </si>
+  <si>
+    <t>Login_Name + Login_Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order_SN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order_Title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order_Create_Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order_Confirm_Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order_Complete_Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order_Price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order_Pay_Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order_Cancel_Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order_State</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行预订后，是否需要4s店进行确认才能预定成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店库存表ID，Shop_Stock.Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态（等待付款:waiting_pay、等待确认:waiting_confirm、预定成功:order_succ、已完成:finish、已取消cancel）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4s店ID，Shop.Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>now</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色字典</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -185,31 +677,221 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>汽车详情页面的颜色和发动机排量是否有必要显示，如果显示，显示的是有库存的才显示，还是所有可能的都显示。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果没有一个4s有库存，特别是刚建设好时数据量不多，网站知道价显示为0是否ok？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市字典</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>System_Refresh_Chain</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统缓存刷新链</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Car_Brand</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
+    <t>City_CName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>City_EName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brand_Ename</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brand_Logo_Path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province_Ename</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省中文名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省英文名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市中文名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市英文名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dic_Color</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color_Cname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color_Ename</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color_RGB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color_Img_Path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色中文名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色英文名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单色RGB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色图片地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Factory_Price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color_Inside_Collection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color_Outside_Collection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂商定价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL:
+--设置数据库级别字符集
+SET character_set_server = 'utf8';
+SET collation_server = 'utf8_general_ci';
+--创建数据库
+create database whalecar
+    CHARACTER SET = 'utf8'
+    COLLATE = 'utf8_general_ci';
+--创建用户
+CREATE USER 
+       whaleuser IDENTIFIED BY 'whale'
+    , whaleadmin IDENTIFIED BY 'whalefin403';
+--用户权限
+grant SELECT , DELETE , INSERT, UPDATE  ON TABLE whalecar.* to whaleuser;
+grant ALL ON TABLE whalecar.* to whaleadmin;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brand_Cname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag_Useable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Car_Model_lv3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Car_Outside_Color</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Car_Inside_Color</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Car_Addition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop_Stock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province_Cname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观颜色集合，关联dic_color.id,逗号分割数组形式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店地址经度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观颜色, Dic_Color.Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内饰颜色，Dic_Color.Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车现货库存数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_City</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -217,186 +899,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dic_Color</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜色字典</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>logo文件名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序值（顺序）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增长键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Car_Model_Lv1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汽车一级型号(如一汽大众的速腾、捷达级别)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汽车二级型号（如1.6L、1.4T等级别）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汽车三级型号（最末型号,如手动时尚型、自动豪华型等）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汽车附加品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ename</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Logo_Path</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Order_Index</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外键Car_Brand.Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Car_Img_Path</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汽车图片地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外键Car_Model_Lv1.Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Short_Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Full_Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全写名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>简写名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>can be null?</t>
+    <t>外键城市,Dic_City.Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>no</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>can be null?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>default?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Car_Model_Lv2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Car_Model_Lv3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外键Car_Model_Lv2.Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>color_inside_collection</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>color_outside_collection</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外观颜色集合，关联dic_color.id,逗号分割数组形式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内饰颜色集合，关联dic_color.id,逗号分割数组形式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>Shop_City</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +915,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -447,19 +958,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -498,7 +1011,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -511,20 +1024,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="36">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -536,6 +1082,30 @@
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -830,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -844,223 +1414,342 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4">
-        <v>4</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>53</v>
+      <c r="A16" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="57" customHeight="1">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A20:F32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1068,6 +1757,12 @@
     <hyperlink ref="A3" location="Car_Model_Lv1!A1" display="Car_Model_Lv1"/>
     <hyperlink ref="A4" location="Car_Model_Lv2!A1" display="Car_Model_Lv2"/>
     <hyperlink ref="A5" location="Car_Model_Lv3!A1" display="Car_MODEL_Lv3"/>
+    <hyperlink ref="A9" location="Shop!A1" display="Shop"/>
+    <hyperlink ref="A10" location="Shop_Stock!A1" display="Shop_Stock"/>
+    <hyperlink ref="A11" location="User!A1" display="User"/>
+    <hyperlink ref="A12" location="User_Order!A1" display="User_Orders"/>
+    <hyperlink ref="A15" location="Dic_City!A1" display="Dic_City"/>
+    <hyperlink ref="A16" location="Dic_Color!A1" display="Dic_Color"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1079,17 +1774,362 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
@@ -1100,110 +2140,119 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
+      <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
         <v>50</v>
       </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" t="s">
-        <v>81</v>
+        <v>94</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1220,10 +2269,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1239,128 +2288,146 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
         <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
       </c>
       <c r="D7" t="s">
         <v>79</v>
       </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1376,10 +2443,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1395,113 +2462,122 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>85</v>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
         <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
       </c>
       <c r="D6" t="s">
         <v>79</v>
       </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" t="s">
-        <v>59</v>
+        <v>94</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1520,8 +2596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1538,141 +2614,1012 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>86</v>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>202</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" t="s">
-        <v>91</v>
-      </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="G9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
         <v>92</v>
       </c>
-      <c r="G10" t="s">
-        <v>59</v>
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
